--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC1828\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC1828\Documents\Github\BBQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -258,6 +258,17 @@
     <rPh sb="0" eb="2">
       <t>ヒロタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア加算</t>
+    <rPh sb="3" eb="5">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓アルファまでのタスク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -302,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -310,20 +321,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -618,172 +784,198 @@
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="2"/>
       <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H2" s="2"/>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H6" s="2"/>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H7" s="2"/>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H14" s="2"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H15" s="2"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -302,13 +302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,19 +446,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +487,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,7 +778,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -804,15 +807,15 @@
         <v>8</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -822,45 +825,45 @@
         <v>9</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -870,15 +873,15 @@
         <v>14</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -888,24 +891,24 @@
         <v>15</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -269,6 +269,228 @@
   </si>
   <si>
     <t>↓アルファまでのタスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベータタスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山中</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廣田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皿のスコア</t>
+    <rPh sb="0" eb="1">
+      <t>サラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了いきなり終わらない</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>的(音・演出</t>
+    <rPh sb="0" eb="1">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動完成</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉取るエフェクト</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉取れなかった演出</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボ長さ</t>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉落下速度</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>ラッカソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とし方</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイソンの扱い</t>
+    <rPh sb="5" eb="6">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉取る</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉取れない</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルでクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトでクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動いる</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイソン音</t>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンロ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -293,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,18 +524,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -440,19 +656,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -489,10 +739,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -794,7 +1059,7 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
       <c r="I1" t="s">
         <v>29</v>
       </c>
@@ -806,16 +1071,16 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -824,46 +1089,46 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -872,16 +1137,16 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -890,25 +1155,25 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -917,19 +1182,34 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -938,10 +1218,19 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -950,10 +1239,19 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -962,27 +1260,134 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="L15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="H16" s="1"/>
+      <c r="I16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>25</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -491,6 +491,69 @@
   </si>
   <si>
     <t>コンロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照準</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉の抗力変更</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動音・スライディング</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボ持続エフェクト</t>
+    <rPh sb="3" eb="5">
+      <t>ジゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギリギリ・ファストエフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト背景</t>
+    <rPh sb="4" eb="6">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボ音</t>
+    <rPh sb="3" eb="4">
+      <t>オン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -699,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +821,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1314,6 +1380,9 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
+      <c r="I17" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="4" t="s">
         <v>50</v>
@@ -1339,7 +1408,9 @@
         <v>40</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
@@ -1371,6 +1442,12 @@
       <c r="K23" t="s">
         <v>54</v>
       </c>
+      <c r="L23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="I24" t="s">
@@ -1379,19 +1456,37 @@
       <c r="K24" t="s">
         <v>56</v>
       </c>
+      <c r="L24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="I25" t="s">
         <v>44</v>
       </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="I26" t="s">
         <v>52</v>
       </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K27" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -367,26 +367,6 @@
     <t>コンボ長さ</t>
     <rPh sb="3" eb="4">
       <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肉落下速度</t>
-    <rPh sb="0" eb="1">
-      <t>ニク</t>
-    </rPh>
-    <rPh sb="1" eb="5">
-      <t>ラッカソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>落とし方</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1108,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1290,11 +1270,11 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -1311,11 +1291,11 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N13" s="16"/>
     </row>
@@ -1332,11 +1312,11 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N14" s="16"/>
     </row>
@@ -1350,11 +1330,11 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -1368,7 +1348,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="4" t="s">
@@ -1381,11 +1361,11 @@
         <v>25</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="2"/>
@@ -1397,7 +1377,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="2"/>
@@ -1409,7 +1389,7 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="2"/>
@@ -1427,7 +1407,7 @@
     </row>
     <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="5"/>
@@ -1436,52 +1416,46 @@
       <c r="N21" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
       <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K24" t="s">
         <v>54</v>
       </c>
-      <c r="L23" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" t="s">
-        <v>56</v>
-      </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="I25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="I26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -371,13 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダイソンの扱い</t>
-    <rPh sb="5" eb="6">
-      <t>アツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>効果音</t>
     <rPh sb="0" eb="3">
       <t>コウカオン</t>
@@ -427,13 +420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動いる</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダイソン音</t>
     <rPh sb="4" eb="5">
       <t>オト</t>
@@ -533,6 +519,16 @@
     <t>コンボ音</t>
     <rPh sb="3" eb="4">
       <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボ終了音</t>
+    <rPh sb="3" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -742,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,9 +797,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1265,16 +1258,16 @@
         <v>21</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -1286,16 +1279,16 @@
         <v>22</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="16"/>
-      <c r="M13" s="15" t="s">
-        <v>55</v>
+      <c r="M13" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="N13" s="16"/>
     </row>
@@ -1307,16 +1300,16 @@
         <v>24</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L14" s="16"/>
-      <c r="M14" s="15" t="s">
-        <v>56</v>
+      <c r="M14" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="N14" s="16"/>
     </row>
@@ -1330,11 +1323,11 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -1348,7 +1341,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="4" t="s">
@@ -1360,12 +1353,12 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="2"/>
+      <c r="I17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="14"/>
       <c r="K17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="2"/>
@@ -1377,7 +1370,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="2"/>
@@ -1389,17 +1382,17 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="4"/>
       <c r="L20" s="3"/>
       <c r="M20" s="2"/>
@@ -1407,7 +1400,7 @@
     </row>
     <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="5"/>
@@ -1417,45 +1410,42 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I25" t="s">
-        <v>42</v>
-      </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -494,17 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンボ持続エフェクト</t>
-    <rPh sb="3" eb="5">
-      <t>ジゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ギリギリ・ファストエフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルト背景</t>
     <rPh sb="4" eb="6">
       <t>ハイケイ</t>
@@ -513,13 +502,6 @@
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンボ音</t>
-    <rPh sb="3" eb="4">
-      <t>オン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1081,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1415,37 +1397,28 @@
       <c r="L23" t="s">
         <v>56</v>
       </c>
-      <c r="M23" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K24" t="s">
         <v>52</v>
       </c>
-      <c r="L24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K25" t="s">
         <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -318,19 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>的(音・演出</t>
-    <rPh sb="0" eb="1">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動完成</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -438,13 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>人間</t>
-    <rPh sb="0" eb="2">
-      <t>ニンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -511,6 +491,60 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>的(音</t>
+    <rPh sb="0" eb="1">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発音</t>
+    <rPh sb="0" eb="3">
+      <t>バクハツオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加熱音・エフェクト</t>
+    <rPh sb="0" eb="2">
+      <t>カネツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人判定</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動エフェクト</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>的設置</t>
+    <rPh sb="0" eb="1">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セッチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1063,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1245,11 +1279,11 @@
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -1266,11 +1300,11 @@
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N13" s="16"/>
     </row>
@@ -1287,11 +1321,11 @@
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N14" s="16"/>
     </row>
@@ -1299,17 +1333,19 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -1318,12 +1354,12 @@
         <v>18</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="4" t="s">
-        <v>38</v>
+      <c r="I16" t="s">
+        <v>60</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="4" t="s">
@@ -1336,35 +1372,38 @@
         <v>25</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I18" s="4" t="s">
-        <v>39</v>
+      <c r="I18" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I19" s="4" t="s">
-        <v>40</v>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="2"/>
@@ -1372,7 +1411,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="I20" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="4"/>
@@ -1381,8 +1420,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I21" s="5" t="s">
-        <v>49</v>
+      <c r="I21" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="5"/>
@@ -1391,34 +1430,40 @@
       <c r="N21" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H23" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="K24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H25" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="K25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H26" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -491,33 +491,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>的(音</t>
-    <rPh sb="0" eb="1">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆発音</t>
-    <rPh sb="0" eb="3">
-      <t>バクハツオン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加熱音・エフェクト</t>
-    <rPh sb="0" eb="2">
-      <t>カネツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1098,7 +1071,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1334,11 +1307,9 @@
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="2"/>
       <c r="K15" s="4" t="s">
         <v>44</v>
@@ -1383,9 +1354,7 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I18" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="2"/>
       <c r="K18" s="4" t="s">
         <v>47</v>
@@ -1396,11 +1365,9 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I19" s="15"/>
       <c r="J19" s="2"/>
       <c r="K19" s="4" t="s">
         <v>57</v>
@@ -1421,7 +1388,7 @@
     </row>
     <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I21" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="5"/>

--- a/たすく.xlsx
+++ b/たすく.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>タイトル・ゲーム・リザルトの変移</t>
     <rPh sb="14" eb="16">
@@ -358,55 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>効果音</t>
-    <rPh sb="0" eb="3">
-      <t>コウカオン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肉取る</t>
-    <rPh sb="0" eb="1">
-      <t>ニク</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肉取れない</t>
-    <rPh sb="0" eb="1">
-      <t>ニク</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム終了</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルでクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リザルトでクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダイソン音</t>
     <rPh sb="4" eb="5">
       <t>オト</t>
@@ -464,16 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動音・スライディング</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルト背景</t>
     <rPh sb="4" eb="6">
       <t>ハイケイ</t>
@@ -482,16 +423,6 @@
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンボ終了音</t>
-    <rPh sb="3" eb="5">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1071,7 +1002,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1251,12 +1182,10 @@
         <v>34</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -1272,12 +1201,10 @@
         <v>35</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="16"/>
       <c r="M13" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N13" s="16"/>
     </row>
@@ -1293,12 +1220,10 @@
         <v>36</v>
       </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="16"/>
       <c r="M14" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N14" s="16"/>
     </row>
@@ -1307,16 +1232,14 @@
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="K15" s="4"/>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -1325,13 +1248,8 @@
         <v>18</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4" t="s">
         <v>15</v>
@@ -1343,12 +1261,10 @@
         <v>25</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="3"/>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
@@ -1356,22 +1272,18 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="I18" s="15"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="K18" s="4"/>
       <c r="L18" s="3"/>
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="K19" s="4"/>
       <c r="L19" s="3"/>
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
@@ -1388,7 +1300,7 @@
     </row>
     <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I21" s="15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="5"/>
@@ -1401,10 +1313,10 @@
         <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
@@ -1414,10 +1326,10 @@
     </row>
     <row r="25" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s">
         <v>48</v>
-      </c>
-      <c r="K25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
@@ -1425,12 +1337,12 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
